--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359522.7884651276</v>
+        <v>375786.0103676621</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556146</v>
+        <v>2629876.587221764</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839636</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4848165.015971369</v>
+        <v>4902964.689084983</v>
       </c>
     </row>
     <row r="11">
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V9" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,25 +1297,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.59002526031614</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W13" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1649,28 +1649,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
-        <v>24.30129424928645</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.59002526031614</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="S15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,22 +1804,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.58387696184059</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>30.06279178075558</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>35.82605737493178</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>69.3421217705996</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,7 +2454,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>179.893889941384</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,31 +2552,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.0059437648496</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>86.94298968588913</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2792,64 +2792,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>116.8792474988037</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,16 +2883,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>120.9820427955896</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.52468151912586</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="35">
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>81.0053776549329</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.1709923455873</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3363,10 +3363,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>5.987350060858576</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,25 +3545,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,10 +3642,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>35.40726547353844</v>
+        <v>40.17257470425444</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,64 +3670,64 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>201.7212010647393</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.49919782958296</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>194.5244857575269</v>
       </c>
     </row>
     <row r="43">
@@ -3904,58 +3904,58 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N2" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O2" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U2" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V2" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W2" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M3" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N3" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I4" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M5" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U5" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V5" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W5" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X5" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C6" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>86.56747182608416</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>58.69875944192644</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N6" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O6" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W6" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X6" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>2.207202020825291</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="H7" t="n">
-        <v>2.207202020825291</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I7" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J7" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C8" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D8" t="n">
-        <v>44.53106090472204</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E8" t="n">
-        <v>44.53106090472204</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F8" t="n">
-        <v>44.53106090472204</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G8" t="n">
-        <v>44.53106090472204</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H8" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M8" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N8" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C9" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>26.7539638887914</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V9" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W9" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X9" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="H10" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="I10" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>72.39977328887976</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M11" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N11" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>100.2684856730375</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S11" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T11" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L12" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T12" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>80.62014129470579</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U13" t="n">
-        <v>52.75142891054807</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V13" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W13" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N14" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O14" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>110.3601010412646</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T14" t="n">
-        <v>82.49138865710684</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U14" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V14" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="C15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7539638887914</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M15" t="n">
-        <v>56.83545203625125</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N15" t="n">
-        <v>84.14957704396423</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>82.49138865710684</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="S15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="T15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="U15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="V15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="W15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="X15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="Y15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.88827101547153</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E16" t="n">
-        <v>2.207202020825291</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="F16" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="G16" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="H16" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I16" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C17" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D17" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E17" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M17" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N17" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X17" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y17" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V18" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W18" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X18" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>93.21247408113457</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S19" t="n">
-        <v>93.21247408113457</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T19" t="n">
-        <v>93.21247408113457</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U19" t="n">
-        <v>93.21247408113457</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V19" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W19" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>279.432186667424</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="C21" t="n">
-        <v>279.432186667424</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="D21" t="n">
-        <v>279.432186667424</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="E21" t="n">
-        <v>279.432186667424</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="F21" t="n">
-        <v>249.0657303232264</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6029,10 +6029,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="W24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y24" t="n">
-        <v>432.4774131586771</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="25">
@@ -6166,16 +6166,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.0815197256143</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C27" t="n">
-        <v>413.6284904444873</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D27" t="n">
-        <v>413.6284904444873</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E27" t="n">
-        <v>254.3910354390318</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8564774659168</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>735.8335372470253</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C30" t="n">
-        <v>561.3805079658983</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D30" t="n">
-        <v>561.3805079658983</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E30" t="n">
-        <v>402.1430529604428</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>255.6084949873278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>735.8335372470253</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E32" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>116.7808214123601</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>116.7808214123601</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>116.7808214123601</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="C36" t="n">
-        <v>554.4520179977666</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D36" t="n">
-        <v>554.4520179977666</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>683.4224531698892</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U38" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T38" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V38" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7260,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>460.1030707281569</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>460.1030707281569</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7375,7 +7375,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>916.0817487045384</v>
+        <v>496.626357174339</v>
       </c>
       <c r="C41" t="n">
-        <v>684.7479737791499</v>
+        <v>496.626357174339</v>
       </c>
       <c r="D41" t="n">
-        <v>453.4141988537614</v>
+        <v>496.626357174339</v>
       </c>
       <c r="E41" t="n">
-        <v>222.0804239283729</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>222.0804239283729</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>222.0804239283729</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>74.32074221503734</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>254.3965937996959</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>471.3722210626001</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>916.0817487045384</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="T41" t="n">
-        <v>916.0817487045384</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="U41" t="n">
-        <v>916.0817487045384</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="V41" t="n">
-        <v>916.0817487045384</v>
+        <v>496.626357174339</v>
       </c>
       <c r="W41" t="n">
-        <v>916.0817487045384</v>
+        <v>496.626357174339</v>
       </c>
       <c r="X41" t="n">
-        <v>916.0817487045384</v>
+        <v>496.626357174339</v>
       </c>
       <c r="Y41" t="n">
-        <v>916.0817487045384</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.37539676972</v>
+        <v>342.3047184192</v>
       </c>
       <c r="C42" t="n">
-        <v>109.37539676972</v>
+        <v>167.8516891380729</v>
       </c>
       <c r="D42" t="n">
-        <v>109.37539676972</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>109.37539676972</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>109.37539676972</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>109.37539676972</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>109.37539676972</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>143.6791950319282</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4094278363015</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1396606406747</v>
+        <v>608.3392789286765</v>
       </c>
       <c r="N42" t="n">
-        <v>597.1396606406747</v>
+        <v>842.4406124543449</v>
       </c>
       <c r="O42" t="n">
-        <v>823.869893445048</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>814.9122192574241</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>814.9122192574241</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>800.266564884108</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>572.042946620497</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>340.7091716951085</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>109.37539676972</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>109.37539676972</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.37539676972</v>
+        <v>510.520055439268</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>808.8635832219807</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>848.0516214142028</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>891.7424720696391</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="V43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N44" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S44" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T44" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U44" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V44" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W44" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M45" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N45" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O45" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P45" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X45" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.078449383226349</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C46" t="n">
-        <v>4.078449383226349</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D46" t="n">
-        <v>4.078449383226349</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39257439093933</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>58.7066993986523</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>86.02082440636528</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>87.68458653569951</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>59.81587415154178</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X46" t="n">
-        <v>31.94716176738407</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.078449383226349</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>262.2416917349371</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
@@ -8228,10 +8228,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8313,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869682</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N11" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>169.0715212093943</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9167,19 +9167,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9258,10 +9258,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.6546058338155</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>367.5748169560088</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>371.154471098153</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>247.0642862492316</v>
       </c>
       <c r="P42" t="n">
-        <v>157.0221819054021</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.4570508509713</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>194.7094745515037</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>314.3754898894238</v>
       </c>
       <c r="X2" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22644,10 +22644,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>65.84192992838649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>170.9075063754883</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22787,16 +22787,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22835,16 +22835,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>314.3754898894238</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5145094703553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>140.6990418612368</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.43472462629148</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>319.8175627926938</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,13 +23036,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>337.113496435638</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,13 +23063,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23103,7 +23103,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23148,22 +23148,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>198.3513568206587</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
-        <v>208.4992929001388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23185,25 +23185,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>140.4009540981426</v>
+        <v>140.6990418612368</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23239,7 +23239,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>264.0742389760816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23264,16 +23264,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>392.5654507069698</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,10 +23346,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23464,22 +23464,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U13" t="n">
-        <v>258.7290040961748</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V13" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W13" t="n">
-        <v>264.0742389760816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23537,28 +23537,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>227.04435865855</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23577,10 +23577,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>133.3437862061145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23589,13 +23589,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.56780889232699</v>
+        <v>66.03894665091181</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>119.1420251493472</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,22 +23692,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>266.591710731088</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23735,13 +23735,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>319.8175627926938</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E17" t="n">
-        <v>342.3464931104212</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23750,7 +23750,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.29235532465395</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>137.7095144153289</v>
+        <v>176.5029409294872</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,16 +23944,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>242.1600909625637</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.1257784271966</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24023,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24057,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>115.0064206126283</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>76.40938686156468</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H23" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,22 +24291,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>75.72709062278427</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>52.90669720804129</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,31 +24440,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0.4391217997891204</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>50.4005274773215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24680,10 +24680,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>164.3376445463983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>30.56581806583503</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,16 +24771,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>16.36147436762103</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1858963954562</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70.00850213074148</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25117,10 +25117,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,13 +25169,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,25 +25199,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25239,7 +25239,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>22.47408810981366</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25251,10 +25251,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>194.177378633963</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,25 +25433,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,10 +25530,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>170.365719729939</v>
+        <v>165.600410499223</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>136.2524545948729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>125.6626044445484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>152.9099328961272</v>
+        <v>145.4643766119907</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>137.7536010510279</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25676,7 +25676,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7408225464386931</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>91.28626500986385</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>185.6655308652387</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>11.15821001977744</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,16 +25910,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T44" t="n">
-        <v>198.7945553148449</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>223.7556276475204</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25959,10 +25959,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.3814015280179</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26080,16 +26080,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107899</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345935.8052461843</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345935.8052461845</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107899</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355312.7236107902</v>
+        <v>358707.9309472631</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742848</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490190.7971941855</v>
+        <v>495485.6875005898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345935.8052461843</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="C2" t="n">
-        <v>80710.96958749174</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="D2" t="n">
-        <v>80710.96958749178</v>
+        <v>82895.95959605242</v>
       </c>
       <c r="E2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="F2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="G2" t="n">
-        <v>82895.95959605242</v>
+        <v>83687.10374583912</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26350,10 +26350,10 @@
         <v>116312.4707719327</v>
       </c>
       <c r="O2" t="n">
-        <v>114324.9676874568</v>
+        <v>115558.7720105901</v>
       </c>
       <c r="P2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.9595960524</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="C4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="D4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="E4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="F4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="G4" t="n">
-        <v>25444.27603751961</v>
+        <v>23996.38648677058</v>
       </c>
       <c r="H4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="J4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="M4" t="n">
-        <v>36022.3303750211</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="N4" t="n">
-        <v>36022.33037502109</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>35393.18284035228</v>
+        <v>33426.83623350843</v>
       </c>
       <c r="P4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11407.23034046522</v>
+        <v>9833.89598930502</v>
       </c>
       <c r="C6" t="n">
-        <v>20653.28237577813</v>
+        <v>23099.36358838795</v>
       </c>
       <c r="D6" t="n">
-        <v>20653.28237577817</v>
+        <v>23099.36358838796</v>
       </c>
       <c r="E6" t="n">
-        <v>54280.88237577814</v>
+        <v>56726.96358838794</v>
       </c>
       <c r="F6" t="n">
-        <v>54280.88237577816</v>
+        <v>56726.96358838795</v>
       </c>
       <c r="G6" t="n">
-        <v>51757.64899564056</v>
+        <v>55760.86162893665</v>
       </c>
       <c r="H6" t="n">
-        <v>11288.73362455484</v>
+        <v>14888.38825358824</v>
       </c>
       <c r="I6" t="n">
-        <v>65636.47163314994</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="J6" t="n">
-        <v>58417.70706393977</v>
+        <v>57652.07132010951</v>
       </c>
       <c r="K6" t="n">
-        <v>65636.47163314994</v>
+        <v>68008.95522391332</v>
       </c>
       <c r="L6" t="n">
-        <v>65636.47163314991</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="M6" t="n">
-        <v>65636.47163314992</v>
+        <v>68008.95522391333</v>
       </c>
       <c r="N6" t="n">
-        <v>65636.47163314989</v>
+        <v>68008.95522391328</v>
       </c>
       <c r="O6" t="n">
-        <v>65007.34226679555</v>
+        <v>67754.80337469713</v>
       </c>
       <c r="P6" t="n">
-        <v>54280.88237577814</v>
+        <v>56726.96358838795</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.56475478883492</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>229.0204371761346</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>104.4680418047872</v>
       </c>
       <c r="P42" t="n">
-        <v>23.04777449107182</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
